--- a/data/trans_camb/P2403-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P2403-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,24; 10,99</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 6,02</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 5,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 5,26</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>178,61%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62,75%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,94%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-76,9; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,38; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,55; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 2,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,94; 2,77</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>440,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>627,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>713,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>975,44%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,54; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45,23; —</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,75; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>166,04; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 4,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 3,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 1,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 2,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 2,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 2,8</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1279,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1057,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1664,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1843,05%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>252,52; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>172,28; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>351,51; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>417,5; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 2,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 1,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 2,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 1,84</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 3,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,31; 3,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 1,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 3,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 1,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 3,33</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>377,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>431,07%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>244,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1163,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>337,9%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>644,43%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,93; 1179,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>112,37; 1207,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,93; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>208,41; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,8; 931,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>245,2; 1600,08</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 2,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,62; 2,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 1,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 2,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 1,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 2,33</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>602,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>574,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1113,14%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2546,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>677,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>868,36%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>284,9; 1281,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>275,4; 1305,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>171,5; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>603,14; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>346,18; 1291,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>502,11; 1676,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2403-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2403-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,79</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 10,99</t>
+          <t>0,84; 3,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 6,02</t>
+          <t>0,63; 3,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 1,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,63; 2,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,7</t>
+          <t>0,69; 2,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,26</t>
+          <t>0,96; 2,87</t>
         </is>
       </c>
     </row>
@@ -677,17 +677,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>178,61%</t>
+          <t>283,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>292,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>180,13%</t>
+          <t>394,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>161,94%</t>
+          <t>493,79%</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,9; —</t>
+          <t>24,75; 1644,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>14,39; 1438,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -735,19 +735,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,38; —</t>
+          <t>68,03; 1837,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,55; —</t>
+          <t>86,11; 1995,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>2,05</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,95</t>
+          <t>1,81; 4,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,84</t>
+          <t>1,4; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,06</t>
+          <t>0,39; 1,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,74</t>
+          <t>1,02; 2,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,07</t>
+          <t>1,25; 2,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,77</t>
+          <t>1,41; 2,8</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>440,68%</t>
+          <t>1279,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>627,38%</t>
+          <t>1057,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>713,74%</t>
+          <t>1664,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>975,44%</t>
+          <t>1843,05%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,54; —</t>
+          <t>252,52; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,23; —</t>
+          <t>172,28; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,75; —</t>
+          <t>351,51; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>166,04; —</t>
+          <t>417,5; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,28</t>
+          <t>1,17; 3,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,72</t>
+          <t>1,05; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,84</t>
+          <t>0,28; 1,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,88</t>
+          <t>0,25; 1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,67</t>
+          <t>0,84; 2,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,8</t>
+          <t>0,72; 1,84</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1279,7%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1057,88%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1664,6%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1843,05%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>252,52; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>172,28; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>351,51; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>417,5; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,37</t>
+          <t>1,15; 3,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,88</t>
+          <t>1,31; 3,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,89</t>
+          <t>-0,08; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,49</t>
+          <t>1,5; 3,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,07</t>
+          <t>0,68; 1,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,84</t>
+          <t>1,67; 3,33</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>377,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>431,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>244,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1163,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>337,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>644,43%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,93; 1179,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>112,37; 1207,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,93; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>208,41; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,8; 931,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>245,2; 1600,08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,42</t>
+          <t>1,69; 2,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,95</t>
+          <t>1,62; 2,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,13</t>
+          <t>0,45; 1,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,72</t>
+          <t>1,21; 2,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,94</t>
+          <t>1,16; 1,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,33</t>
+          <t>1,58; 2,33</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>377,35%</t>
+          <t>602,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>431,07%</t>
+          <t>574,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>244,7%</t>
+          <t>1113,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1163,79%</t>
+          <t>2546,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>337,9%</t>
+          <t>677,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>644,43%</t>
+          <t>868,36%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>73,93; 1179,45</t>
+          <t>284,9; 1281,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>112,37; 1207,0</t>
+          <t>275,4; 1305,15</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,93; —</t>
+          <t>171,5; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>208,41; —</t>
+          <t>603,14; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,8; 931,2</t>
+          <t>346,18; 1291,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>245,2; 1600,08</t>
+          <t>502,11; 1676,84</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 2,98</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 2,81</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 1,14</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 2,13</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,83</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 2,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>602,65%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>574,74%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1113,14%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>2546,32%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>677,7%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>868,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>284,9; 1281,42</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>275,4; 1305,15</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>171,5; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>603,14; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>346,18; 1291,49</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>502,11; 1676,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
